--- a/FileOutput/HybridResults.xlsx
+++ b/FileOutput/HybridResults.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8304" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8304" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Suppliers" sheetId="4" r:id="rId4"/>
     <sheet name="Cusstomers" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="88">
   <si>
     <t>TCID</t>
   </si>
@@ -169,10 +169,124 @@
     <t>closeBrowser</t>
   </si>
   <si>
+    <t>Wait for stock item link</t>
+  </si>
+  <si>
+    <t>Click Stock items link</t>
+  </si>
+  <si>
+    <t>//a[text()='Stock Items ']</t>
+  </si>
+  <si>
+    <t>Wait for Add Icon</t>
+  </si>
+  <si>
+    <t>Click Add icon</t>
+  </si>
+  <si>
+    <t>(//span[@data-caption='Add'])[1]</t>
+  </si>
+  <si>
+    <t>Wait for Category Listbox</t>
+  </si>
+  <si>
+    <t>Select item in Category</t>
+  </si>
+  <si>
+    <t>dropDownAction</t>
+  </si>
+  <si>
+    <t>Seelct item in Supplier Number</t>
+  </si>
+  <si>
+    <t>x_Category</t>
+  </si>
+  <si>
+    <t>//select[@id='x_Category']</t>
+  </si>
+  <si>
+    <t>x_Supplier_Number</t>
+  </si>
+  <si>
+    <t>Capture Stock number</t>
+  </si>
+  <si>
+    <t>captureStock</t>
+  </si>
+  <si>
+    <t>x_Stock_Number</t>
+  </si>
+  <si>
+    <t>Enter Stcok name</t>
+  </si>
+  <si>
+    <t>Puzzels</t>
+  </si>
+  <si>
+    <t>x_Stock_Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select item in Unit Of Measurement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Purchasing Price </t>
+  </si>
+  <si>
+    <t>Enter Selling Price</t>
+  </si>
+  <si>
+    <t>Enter notes</t>
+  </si>
+  <si>
+    <t>Selling Puzzles</t>
+  </si>
+  <si>
+    <t>x_Purchasing_Price</t>
+  </si>
+  <si>
+    <t>x_Unit_Of_Measurement</t>
+  </si>
+  <si>
+    <t>x_Selling_Price</t>
+  </si>
+  <si>
+    <t>x_Notes</t>
+  </si>
+  <si>
+    <t>Click add button</t>
+  </si>
+  <si>
+    <t>btnAction</t>
+  </si>
+  <si>
+    <t>Verify Stock Number</t>
+  </si>
+  <si>
+    <t>stockTable</t>
+  </si>
+  <si>
+    <t>Wait for Confirm ok button</t>
+  </si>
+  <si>
+    <t>Click Confirm ok button</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='OK!']</t>
+  </si>
+  <si>
+    <t>Wait for alert ok</t>
+  </si>
+  <si>
+    <t>Click Alert ok</t>
+  </si>
+  <si>
+    <t>(//button[starts-with(text(),'OK')])[6]</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
     <t>pass</t>
-  </si>
-  <si>
-    <t>Blocked</t>
   </si>
 </sst>
 </file>
@@ -180,7 +294,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="28">
+  <fonts count="66">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,127 +337,355 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
       <color indexed="12"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
       <b val="true"/>
     </font>
     <font>
@@ -400,12 +742,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -429,6 +773,44 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -712,7 +1094,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -744,10 +1126,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s" s="24">
-        <v>48</v>
+        <v>13</v>
+      </c>
+      <c r="D2" t="s" s="7">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21">
@@ -758,10 +1140,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s" s="25">
-        <v>49</v>
+        <v>12</v>
+      </c>
+      <c r="D3" t="s" s="65">
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21">
@@ -774,8 +1156,8 @@
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s" s="26">
-        <v>49</v>
+      <c r="D4" t="s" s="66">
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21">
@@ -788,8 +1170,8 @@
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s" s="27">
-        <v>49</v>
+      <c r="D5" t="s" s="67">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -802,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -851,9 +1233,7 @@
       <c r="E2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s" s="5">
-        <v>48</v>
-      </c>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="15.6">
       <c r="A3" s="4" t="s">
@@ -871,9 +1251,7 @@
       <c r="E3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s" s="7">
-        <v>48</v>
-      </c>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="15.6">
       <c r="A4" s="4" t="s">
@@ -891,9 +1269,7 @@
       <c r="E4" s="4">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="9">
-        <v>48</v>
-      </c>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="15.6">
       <c r="A5" s="4" t="s">
@@ -911,9 +1287,7 @@
       <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s" s="11">
-        <v>48</v>
-      </c>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="15.6">
       <c r="A6" s="4" t="s">
@@ -931,9 +1305,7 @@
       <c r="E6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F6" t="s" s="13">
-        <v>48</v>
-      </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="15.6">
       <c r="A7" s="4" t="s">
@@ -951,9 +1323,7 @@
       <c r="E7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F7" t="s" s="15">
-        <v>48</v>
-      </c>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="15.6">
       <c r="A8" s="4" t="s">
@@ -971,9 +1341,7 @@
       <c r="E8" s="4">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="17">
-        <v>48</v>
-      </c>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="15.6">
       <c r="A9" s="4" t="s">
@@ -991,9 +1359,7 @@
       <c r="E9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F9" t="s" s="19">
-        <v>48</v>
-      </c>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="15.6">
       <c r="A10" s="4" t="s">
@@ -1011,9 +1377,7 @@
       <c r="E10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F10" t="s" s="21">
-        <v>48</v>
-      </c>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="15.6">
       <c r="A11" s="4" t="s">
@@ -1031,9 +1395,7 @@
       <c r="E11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F11" t="s" s="23">
-        <v>48</v>
-      </c>
+      <c r="F11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1042,19 +1404,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.77734375"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.6640625"/>
+    <col min="1" max="1" customWidth="true" width="44.77734375"/>
+    <col min="2" max="2" customWidth="true" width="22.0"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="18.0"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.21875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.21875"/>
+    <col min="4" max="4" customWidth="true" width="39.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="28.6640625"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="9.5546875"/>
   </cols>
   <sheetData>
@@ -1076,6 +1439,586 @@
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.6">
+      <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s" s="8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6">
+      <c r="A3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s" s="10">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6">
+      <c r="A4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="12">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.6">
+      <c r="A5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s" s="14">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.6">
+      <c r="A6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s" s="16">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.6">
+      <c r="A7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s" s="18">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.6">
+      <c r="A8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="4">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="20">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.6">
+      <c r="A9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s" s="22">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6">
+      <c r="A10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="6">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s" s="24">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.6">
+      <c r="A11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s" s="26">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.6">
+      <c r="A12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="6">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s" s="28">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.6">
+      <c r="A13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s" s="30">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.6">
+      <c r="A14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="6">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s" s="32">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.6">
+      <c r="A15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s" s="34">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.6">
+      <c r="A16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s" s="36">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.6">
+      <c r="A17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s" s="38">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.6">
+      <c r="A18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" t="s" s="40">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.6">
+      <c r="A19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s" s="42">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.6">
+      <c r="A20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="5">
+        <v>300000</v>
+      </c>
+      <c r="F20" t="s" s="44">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.6">
+      <c r="A21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="5">
+        <v>500000</v>
+      </c>
+      <c r="F21" t="s" s="46">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.6">
+      <c r="A22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" t="s" s="48">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.6">
+      <c r="A23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s" s="50">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.6">
+      <c r="A24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="5">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s" s="52">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.6">
+      <c r="A25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s" s="54">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.6">
+      <c r="A26" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="5">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s" s="56">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.6">
+      <c r="A27" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s" s="58">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.6">
+      <c r="A28" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" t="s" s="60">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.6">
+      <c r="A29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" t="s" s="62">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.6">
+      <c r="A30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" t="s" s="64">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
